--- a/imports/races_chiens.xlsx
+++ b/imports/races_chiens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumelefebvre/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniemihut/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D09AF8-1E9D-1548-9EE2-95FE8E28F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E8F0D-D6FD-4241-9355-21597C6596DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="880" windowWidth="34520" windowHeight="22500" activeTab="3" xr2:uid="{9C6272A0-7073-9548-A14D-730977153DFA}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="13580" xr2:uid="{9C6272A0-7073-9548-A14D-730977153DFA}"/>
   </bookViews>
   <sheets>
     <sheet name="OGGO Data" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1571">
   <si>
     <t>}</t>
   </si>
@@ -3852,9 +3849,6 @@
   </si>
   <si>
     <t>Numérotation</t>
-  </si>
-  <si>
-    <t>RACES</t>
   </si>
   <si>
     <t>PETIT (-10kg)</t>
@@ -4765,7 +4759,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4954,39 +4948,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5038,7 +5032,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5149,6 +5143,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -5157,13 +5158,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5228,31 +5222,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5262,7 +5236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D353396-BE4B-724D-91CF-9A2E5712FB4B}">
   <dimension ref="A1:B533"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -15240,7 +15214,7 @@
   <dimension ref="A1:B390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18378,8 +18352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F69D506-9E42-1646-8FDD-7F4E76644B55}">
   <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18399,23 +18373,23 @@
         <v>1270</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1275</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -18426,16 +18400,16 @@
         <v>516</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -18447,15 +18421,15 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -18468,14 +18442,14 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -18483,19 +18457,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -18503,19 +18477,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -18523,19 +18497,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -18548,14 +18522,14 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -18567,15 +18541,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -18583,16 +18557,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -18600,17 +18574,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -18623,14 +18597,14 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -18638,19 +18612,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -18662,15 +18636,15 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -18682,15 +18656,15 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -18702,15 +18676,15 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -18722,15 +18696,15 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -18742,15 +18716,15 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -18762,15 +18736,15 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -18783,14 +18757,14 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -18798,16 +18772,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -18819,15 +18793,15 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -18839,15 +18813,15 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -18855,16 +18829,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -18876,15 +18850,15 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -18892,19 +18866,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -18912,16 +18886,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -18929,19 +18903,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -18949,19 +18923,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -18969,19 +18943,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -18989,19 +18963,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -19009,19 +18983,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -19029,19 +19003,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -19049,19 +19023,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -19069,19 +19043,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -19089,19 +19063,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G36" t="s">
         <v>1277</v>
       </c>
-      <c r="G36" t="s">
-        <v>1278</v>
-      </c>
       <c r="H36" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -19109,19 +19083,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G37" t="s">
         <v>1277</v>
       </c>
-      <c r="G37" t="s">
-        <v>1278</v>
-      </c>
       <c r="H37" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -19129,19 +19103,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -19149,19 +19123,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -19169,16 +19143,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F40" s="6"/>
       <c r="H40" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -19186,16 +19160,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -19203,19 +19177,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -19227,15 +19201,15 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -19243,19 +19217,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -19268,14 +19242,14 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -19283,19 +19257,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -19303,19 +19277,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -19323,19 +19297,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -19343,19 +19317,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -19363,19 +19337,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -19383,19 +19357,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G51" t="s">
         <v>1277</v>
       </c>
-      <c r="G51" t="s">
-        <v>1278</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -19403,19 +19377,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -19428,14 +19402,14 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -19443,19 +19417,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -19463,19 +19437,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -19483,19 +19457,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -19503,19 +19477,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -19523,19 +19497,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -19543,19 +19517,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G59" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -19563,19 +19537,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -19583,19 +19557,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -19603,19 +19577,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -19623,19 +19597,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -19646,16 +19620,16 @@
         <v>573</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -19666,16 +19640,16 @@
         <v>574</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -19686,16 +19660,16 @@
         <v>575</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -19708,14 +19682,14 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -19728,14 +19702,14 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -19747,15 +19721,15 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -19766,16 +19740,16 @@
         <v>580</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -19783,19 +19757,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -19803,19 +19777,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -19827,15 +19801,15 @@
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -19847,15 +19821,15 @@
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -19869,13 +19843,13 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G75" t="s">
         <v>1277</v>
       </c>
-      <c r="G75" t="s">
-        <v>1278</v>
-      </c>
       <c r="H75" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -19887,15 +19861,15 @@
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -19907,15 +19881,15 @@
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -19928,14 +19902,14 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -19949,13 +19923,13 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G79" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -19968,14 +19942,14 @@
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -19983,19 +19957,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -20003,19 +19977,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -20023,19 +19997,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -20043,19 +20017,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -20067,15 +20041,15 @@
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -20083,19 +20057,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -20103,19 +20077,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -20127,15 +20101,15 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -20148,14 +20122,14 @@
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -20168,14 +20142,14 @@
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -20183,19 +20157,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -20203,19 +20177,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -20228,14 +20202,14 @@
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -20248,14 +20222,14 @@
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -20263,19 +20237,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -20283,19 +20257,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -20303,19 +20277,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -20323,19 +20297,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -20348,14 +20322,14 @@
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -20363,19 +20337,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -20387,15 +20361,15 @@
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -20403,19 +20377,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -20423,16 +20397,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F103" s="6"/>
       <c r="H103" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -20440,19 +20414,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -20466,13 +20440,13 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G105" t="s">
         <v>1277</v>
       </c>
-      <c r="G105" t="s">
-        <v>1278</v>
-      </c>
       <c r="H105" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -20480,19 +20454,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -20500,19 +20474,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -20525,14 +20499,14 @@
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -20540,19 +20514,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -20564,15 +20538,15 @@
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -20586,13 +20560,13 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G111" t="s">
         <v>1277</v>
       </c>
-      <c r="G111" t="s">
-        <v>1278</v>
-      </c>
       <c r="H111" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -20603,16 +20577,16 @@
         <v>623</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -20620,19 +20594,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G113" t="s">
         <v>1277</v>
       </c>
-      <c r="G113" t="s">
-        <v>1278</v>
-      </c>
       <c r="H113" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -20640,16 +20614,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -20657,16 +20631,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -20674,16 +20648,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -20695,15 +20669,15 @@
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -20715,15 +20689,15 @@
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -20734,16 +20708,16 @@
         <v>627</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -20751,19 +20725,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -20776,14 +20750,14 @@
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -20791,16 +20765,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -20813,14 +20787,14 @@
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -20831,16 +20805,16 @@
         <v>631</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -20848,19 +20822,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -20868,19 +20842,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -20888,19 +20862,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -20908,19 +20882,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -20928,19 +20902,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -20952,15 +20926,15 @@
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -20968,16 +20942,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -20989,15 +20963,15 @@
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -21005,16 +20979,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -21022,16 +20996,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -21039,19 +21013,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -21059,16 +21033,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F136" s="6"/>
       <c r="H136" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -21076,19 +21050,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -21101,14 +21075,14 @@
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -21116,19 +21090,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -21136,16 +21110,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -21153,19 +21127,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -21173,19 +21147,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -21193,16 +21167,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="H143" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -21210,19 +21184,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -21230,19 +21204,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -21250,19 +21224,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -21270,19 +21244,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -21290,19 +21264,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -21310,19 +21284,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -21330,19 +21304,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -21350,16 +21324,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="H151" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -21367,16 +21341,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F152" s="6"/>
       <c r="H152" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -21384,16 +21358,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="H153" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -21405,15 +21379,15 @@
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -21421,16 +21395,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="H155" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -21438,16 +21412,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F156" s="6"/>
       <c r="H156" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -21455,19 +21429,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -21475,19 +21449,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -21495,19 +21469,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -21515,16 +21489,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F160" s="6"/>
       <c r="H160" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -21532,16 +21506,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F161" s="6"/>
       <c r="H161" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -21554,14 +21528,14 @@
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -21569,16 +21543,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="H163" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -21586,16 +21560,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="H164" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -21603,16 +21577,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -21620,16 +21594,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -21637,16 +21611,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -21658,15 +21632,15 @@
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -21674,16 +21648,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="H169" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -21691,16 +21665,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -21708,19 +21682,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -21733,14 +21707,14 @@
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -21748,19 +21722,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G173" t="s">
         <v>1277</v>
       </c>
-      <c r="G173" t="s">
-        <v>1278</v>
-      </c>
       <c r="H173" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -21768,19 +21742,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G174" t="s">
         <v>1277</v>
       </c>
-      <c r="G174" t="s">
-        <v>1278</v>
-      </c>
       <c r="H174" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -21788,16 +21762,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="H175" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -21805,19 +21779,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -21829,15 +21803,15 @@
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -21845,19 +21819,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -21870,14 +21844,14 @@
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -21889,15 +21863,15 @@
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -21909,15 +21883,15 @@
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -21925,19 +21899,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -21945,19 +21919,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -21970,14 +21944,14 @@
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -21985,19 +21959,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -22010,14 +21984,14 @@
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -22025,19 +21999,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -22045,16 +22019,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F188" s="6"/>
       <c r="H188" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -22062,19 +22036,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -22082,19 +22056,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -22102,19 +22076,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -22122,19 +22096,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -22146,15 +22120,15 @@
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -22167,14 +22141,14 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -22182,16 +22156,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -22199,19 +22173,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -22224,14 +22198,14 @@
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -22244,14 +22218,14 @@
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -22259,19 +22233,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -22279,19 +22253,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -22304,14 +22278,14 @@
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -22319,19 +22293,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -22339,16 +22313,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F203" s="6"/>
       <c r="H203" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -22356,19 +22330,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -22381,14 +22355,14 @@
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -22396,16 +22370,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -22417,15 +22391,15 @@
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -22433,19 +22407,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -22453,19 +22427,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -22473,19 +22447,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -22497,15 +22471,15 @@
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -22517,15 +22491,15 @@
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -22533,19 +22507,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -22558,14 +22532,14 @@
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -22576,16 +22550,16 @@
         <v>697</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -22598,11 +22572,11 @@
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F216" s="6"/>
       <c r="H216" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -22610,19 +22584,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -22635,14 +22609,14 @@
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -22650,19 +22624,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G219" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -22676,13 +22650,13 @@
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G220" t="s">
         <v>1277</v>
       </c>
-      <c r="G220" t="s">
-        <v>1278</v>
-      </c>
       <c r="H220" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -22696,13 +22670,13 @@
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G221" t="s">
         <v>1277</v>
       </c>
-      <c r="G221" t="s">
-        <v>1278</v>
-      </c>
       <c r="H221" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -22716,13 +22690,13 @@
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G222" t="s">
         <v>1277</v>
       </c>
-      <c r="G222" t="s">
-        <v>1278</v>
-      </c>
       <c r="H222" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -22730,16 +22704,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F223" s="6"/>
       <c r="H223" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -22753,13 +22727,13 @@
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G224" t="s">
         <v>1277</v>
       </c>
-      <c r="G224" t="s">
-        <v>1278</v>
-      </c>
       <c r="H224" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -22771,15 +22745,15 @@
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -22787,19 +22761,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -22807,19 +22781,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -22827,19 +22801,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -22851,15 +22825,15 @@
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -22871,15 +22845,15 @@
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -22887,19 +22861,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -22911,15 +22885,15 @@
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -22927,19 +22901,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -22947,19 +22921,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -22967,19 +22941,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -22991,15 +22965,15 @@
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -23011,15 +22985,15 @@
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -23027,16 +23001,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -23044,19 +23018,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -23069,14 +23043,14 @@
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -23084,16 +23058,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F241" s="6"/>
       <c r="H241" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -23105,15 +23079,15 @@
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -23127,13 +23101,13 @@
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G243" t="s">
         <v>1277</v>
       </c>
-      <c r="G243" t="s">
-        <v>1278</v>
-      </c>
       <c r="H243" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -23141,16 +23115,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F244" s="6"/>
       <c r="H244" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -23161,16 +23135,16 @@
         <v>1080</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -23178,19 +23152,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -23198,19 +23172,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -23223,14 +23197,14 @@
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -23238,19 +23212,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -23258,19 +23232,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F250" s="6"/>
       <c r="G250" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -23278,19 +23252,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -23303,14 +23277,14 @@
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F252" s="6"/>
       <c r="G252" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -23323,14 +23297,14 @@
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -23338,19 +23312,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F254" s="6"/>
       <c r="G254" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -23358,19 +23332,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F255" s="6"/>
       <c r="G255" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -23378,19 +23352,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F256" s="6"/>
       <c r="G256" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -23403,14 +23377,14 @@
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -23423,14 +23397,14 @@
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -23444,13 +23418,13 @@
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G259" t="s">
         <v>1277</v>
       </c>
-      <c r="G259" t="s">
-        <v>1278</v>
-      </c>
       <c r="H259" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -23458,19 +23432,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F260" s="6"/>
       <c r="G260" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -23483,14 +23457,14 @@
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F261" s="6"/>
       <c r="G261" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -23503,14 +23477,14 @@
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F262" s="6"/>
       <c r="G262" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -23518,19 +23492,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -23543,14 +23517,14 @@
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -23558,16 +23532,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F265" s="6"/>
       <c r="H265" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -23575,19 +23549,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -23598,16 +23572,16 @@
         <v>743</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -23619,15 +23593,15 @@
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -23638,16 +23612,16 @@
         <v>744</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -23655,19 +23629,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F270" s="6"/>
       <c r="G270" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -23675,19 +23649,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -23699,15 +23673,15 @@
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -23720,14 +23694,14 @@
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F273" s="6"/>
       <c r="G273" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -23735,19 +23709,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F274" s="6"/>
       <c r="G274" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -23760,14 +23734,14 @@
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F275" s="6"/>
       <c r="G275" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -23775,19 +23749,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F276" s="6"/>
       <c r="G276" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -23800,14 +23774,14 @@
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F277" s="6"/>
       <c r="G277" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -23815,19 +23789,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F278" s="6"/>
       <c r="G278" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -23835,19 +23809,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -23855,19 +23829,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -23880,14 +23854,14 @@
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F281" s="6"/>
       <c r="G281" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -23895,19 +23869,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -23915,19 +23889,19 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H283" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -23939,15 +23913,15 @@
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -23961,13 +23935,13 @@
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G285" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -23979,15 +23953,15 @@
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -23999,15 +23973,15 @@
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -24015,19 +23989,19 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G288" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -24038,16 +24012,16 @@
         <v>766</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -24055,19 +24029,19 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F290" s="6"/>
       <c r="G290" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -24075,16 +24049,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F291" s="6"/>
       <c r="H291" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -24092,19 +24066,19 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -24112,19 +24086,19 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -24132,19 +24106,19 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -24155,16 +24129,16 @@
         <v>771</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -24172,16 +24146,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="H296" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -24195,13 +24169,13 @@
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G297" t="s">
         <v>1277</v>
       </c>
-      <c r="G297" t="s">
-        <v>1278</v>
-      </c>
       <c r="H297" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -24209,19 +24183,19 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G298" t="s">
         <v>1277</v>
       </c>
-      <c r="G298" t="s">
-        <v>1278</v>
-      </c>
       <c r="H298" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -24234,14 +24208,14 @@
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -24249,19 +24223,19 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G300" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -24274,14 +24248,14 @@
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F301" s="6"/>
       <c r="G301" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -24289,19 +24263,19 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G302" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -24309,16 +24283,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F303" s="6"/>
       <c r="H303" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -24329,16 +24303,16 @@
         <v>774</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -24352,13 +24326,13 @@
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G305" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -24366,16 +24340,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F306" s="6"/>
       <c r="H306" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -24388,14 +24362,14 @@
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F307" s="6"/>
       <c r="G307" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -24403,16 +24377,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="H308" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -24426,13 +24400,13 @@
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G309" t="s">
         <v>1277</v>
       </c>
-      <c r="G309" t="s">
-        <v>1278</v>
-      </c>
       <c r="H309" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -24440,19 +24414,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G310" t="s">
         <v>1277</v>
       </c>
-      <c r="G310" t="s">
-        <v>1278</v>
-      </c>
       <c r="H310" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -24460,19 +24434,19 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G311" t="s">
         <v>1277</v>
       </c>
-      <c r="G311" t="s">
-        <v>1278</v>
-      </c>
       <c r="H311" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -24480,19 +24454,19 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G312" t="s">
         <v>1277</v>
       </c>
-      <c r="G312" t="s">
-        <v>1278</v>
-      </c>
       <c r="H312" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -24500,19 +24474,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G313" t="s">
         <v>1277</v>
       </c>
-      <c r="G313" t="s">
-        <v>1278</v>
-      </c>
       <c r="H313" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -24524,15 +24498,15 @@
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -24540,19 +24514,19 @@
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -24560,19 +24534,19 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -24580,16 +24554,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -24597,19 +24571,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -24617,19 +24591,19 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -24637,16 +24611,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -24654,19 +24628,19 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -24674,16 +24648,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -24691,19 +24665,19 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -24711,19 +24685,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -24734,16 +24708,16 @@
         <v>793</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -24751,19 +24725,19 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -24771,19 +24745,19 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H327" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -24791,19 +24765,19 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -24811,19 +24785,19 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -24831,16 +24805,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="H330" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -24848,19 +24822,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -24871,16 +24845,16 @@
         <v>799</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -24888,16 +24862,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="H333" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -24909,15 +24883,15 @@
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -24925,19 +24899,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -24945,19 +24919,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -24965,16 +24939,16 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="H337" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -24982,19 +24956,19 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -25002,19 +24976,19 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -25025,16 +24999,16 @@
         <v>806</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -25042,16 +25016,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="H341" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -25059,19 +25033,19 @@
         <v>341</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -25079,16 +25053,16 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F343" s="6"/>
       <c r="H343" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -25096,19 +25070,19 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H344" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -25116,19 +25090,19 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -25136,19 +25110,19 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -25156,19 +25130,19 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -25176,19 +25150,19 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H348" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -25196,19 +25170,19 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -25221,14 +25195,14 @@
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F350" s="6"/>
       <c r="G350" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
@@ -25241,14 +25215,14 @@
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F351" s="6"/>
       <c r="G351" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -25261,14 +25235,14 @@
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F352" s="6"/>
       <c r="G352" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -25276,19 +25250,19 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -25296,19 +25270,19 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H354" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -25316,19 +25290,19 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G355" t="s">
         <v>1277</v>
       </c>
-      <c r="G355" t="s">
-        <v>1278</v>
-      </c>
       <c r="H355" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -25336,16 +25310,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="H356" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -25353,16 +25327,16 @@
         <v>356</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="H357" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
@@ -25370,16 +25344,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="H358" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -25392,14 +25366,14 @@
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F359" s="6"/>
       <c r="G359" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -25407,19 +25381,19 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F360" s="6"/>
       <c r="G360" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H360" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -25432,14 +25406,14 @@
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F361" s="6"/>
       <c r="G361" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -25452,14 +25426,14 @@
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F362" s="6"/>
       <c r="G362" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H362" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -25472,14 +25446,14 @@
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F363" s="6"/>
       <c r="G363" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -25487,19 +25461,19 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -25507,19 +25481,19 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F365" s="6"/>
       <c r="G365" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -25533,13 +25507,13 @@
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G366" t="s">
         <v>1277</v>
       </c>
-      <c r="G366" t="s">
-        <v>1278</v>
-      </c>
       <c r="H366" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -25547,19 +25521,19 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G367" t="s">
         <v>1277</v>
       </c>
-      <c r="G367" t="s">
-        <v>1278</v>
-      </c>
       <c r="H367" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -25567,19 +25541,19 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G368" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -25591,15 +25565,15 @@
       </c>
       <c r="C369" s="6"/>
       <c r="D369" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
@@ -25607,19 +25581,19 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F370" s="6"/>
       <c r="G370" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -25632,14 +25606,14 @@
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
       <c r="E371" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F371" s="6"/>
       <c r="G371" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -25647,19 +25621,19 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H372" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -25667,19 +25641,19 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H373" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -25690,16 +25664,16 @@
         <v>839</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -25707,19 +25681,19 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G375" t="s">
         <v>1277</v>
       </c>
-      <c r="G375" t="s">
-        <v>1278</v>
-      </c>
       <c r="H375" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -25731,15 +25705,15 @@
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -25750,16 +25724,16 @@
         <v>842</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H377" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -25770,16 +25744,16 @@
         <v>843</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -25787,16 +25761,16 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="H379" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
@@ -25808,15 +25782,15 @@
       </c>
       <c r="C380" s="6"/>
       <c r="D380" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -25829,14 +25803,14 @@
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -25848,15 +25822,15 @@
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -25868,15 +25842,15 @@
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -25884,19 +25858,19 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C384" s="6"/>
       <c r="D384" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -25904,19 +25878,19 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -25927,16 +25901,16 @@
         <v>850</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -25944,19 +25918,19 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -25964,19 +25938,19 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -25987,16 +25961,16 @@
         <v>853</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -26009,14 +25983,14 @@
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F390" s="6"/>
       <c r="G390" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -26024,19 +25998,19 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C391" s="6"/>
       <c r="D391" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -26044,16 +26018,16 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C392" s="6"/>
       <c r="D392" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="H392" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -26061,16 +26035,16 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -26078,16 +26052,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
@@ -26095,19 +26069,19 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F395" s="6"/>
       <c r="G395" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -26115,19 +26089,19 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -26135,19 +26109,19 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -26155,19 +26129,19 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -26175,19 +26149,19 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -26195,19 +26169,19 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -26215,19 +26189,19 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
@@ -26235,19 +26209,19 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -26255,19 +26229,19 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H403" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
@@ -26278,16 +26252,16 @@
         <v>865</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H404" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.2">
@@ -26299,15 +26273,15 @@
       </c>
       <c r="C405" s="6"/>
       <c r="D405" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
@@ -26319,15 +26293,15 @@
       </c>
       <c r="C406" s="6"/>
       <c r="D406" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
@@ -26335,19 +26309,19 @@
         <v>406</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
@@ -26355,19 +26329,19 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -26375,19 +26349,19 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F409" s="6"/>
       <c r="G409" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
@@ -26399,15 +26373,15 @@
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
@@ -26415,16 +26389,16 @@
         <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
@@ -26435,16 +26409,16 @@
         <v>1235</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
@@ -26455,16 +26429,16 @@
         <v>1236</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
@@ -26475,16 +26449,16 @@
         <v>1237</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
@@ -26492,19 +26466,19 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -26512,19 +26486,19 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.2">
@@ -26532,19 +26506,19 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
@@ -26552,19 +26526,19 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
@@ -26572,19 +26546,19 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
@@ -26592,19 +26566,19 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.2">
@@ -26618,13 +26592,13 @@
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G421" t="s">
         <v>1277</v>
       </c>
-      <c r="G421" t="s">
-        <v>1278</v>
-      </c>
       <c r="H421" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.2">
@@ -26632,19 +26606,19 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
       <c r="G422" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
@@ -26652,19 +26626,19 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
@@ -26672,19 +26646,19 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
       <c r="G424" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
@@ -26695,16 +26669,16 @@
         <v>893</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
       <c r="G425" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
@@ -26715,16 +26689,16 @@
         <v>894</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
       <c r="G426" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
@@ -26732,19 +26706,19 @@
         <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
       <c r="G427" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
@@ -26752,19 +26726,19 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
       <c r="G428" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
@@ -26772,19 +26746,19 @@
         <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C429" s="6"/>
       <c r="D429" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
@@ -26792,19 +26766,19 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C430" s="6"/>
       <c r="D430" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
       <c r="G430" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
@@ -26812,19 +26786,19 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C431" s="6"/>
       <c r="D431" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
       <c r="G431" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
@@ -26836,15 +26810,15 @@
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
       <c r="G432" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
@@ -26857,14 +26831,14 @@
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
       <c r="E433" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F433" s="6"/>
       <c r="G433" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
@@ -26872,19 +26846,19 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
       <c r="G434" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.2">
@@ -26892,19 +26866,19 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G435" t="s">
         <v>1277</v>
       </c>
-      <c r="G435" t="s">
-        <v>1278</v>
-      </c>
       <c r="H435" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.2">
@@ -26912,19 +26886,19 @@
         <v>435</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
       <c r="G436" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
@@ -26936,15 +26910,15 @@
       </c>
       <c r="C437" s="6"/>
       <c r="D437" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
       <c r="G437" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H437" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
@@ -26956,15 +26930,15 @@
       </c>
       <c r="C438" s="6"/>
       <c r="D438" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
       <c r="G438" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
@@ -26972,16 +26946,16 @@
         <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
       <c r="E439" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F439" s="6"/>
       <c r="H439" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.2">
@@ -26989,19 +26963,19 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
       <c r="G440" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
@@ -27009,19 +26983,19 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
       <c r="G441" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
@@ -27033,15 +27007,15 @@
       </c>
       <c r="C442" s="6"/>
       <c r="D442" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
       <c r="G442" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H442" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
@@ -27049,16 +27023,16 @@
         <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C443" s="6"/>
       <c r="D443" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
       <c r="H443" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
@@ -27066,19 +27040,19 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
       <c r="G444" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
@@ -27090,13 +27064,13 @@
       </c>
       <c r="C445" s="14"/>
       <c r="D445" s="15" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E445" s="14"/>
       <c r="F445" s="14"/>
       <c r="G445" s="16"/>
       <c r="H445" s="17" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
@@ -27104,17 +27078,17 @@
         <v>445</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C446" s="14"/>
       <c r="D446" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E446" s="14"/>
       <c r="F446" s="14"/>
       <c r="G446" s="16"/>
       <c r="H446" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.2">
@@ -27122,17 +27096,17 @@
         <v>446</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C447" s="14"/>
       <c r="D447" s="14"/>
       <c r="E447" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F447" s="14"/>
       <c r="G447" s="16"/>
       <c r="H447" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.2">
@@ -27144,13 +27118,13 @@
       </c>
       <c r="C448" s="14"/>
       <c r="D448" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E448" s="14"/>
       <c r="F448" s="14"/>
       <c r="G448" s="16"/>
       <c r="H448" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
